--- a/inputs/chp.xlsx
+++ b/inputs/chp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EF8D3F-08CA-4100-B3F5-FA6DC18714C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E38E1BA-8B8F-482F-A193-46605B6C5C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30840" yWindow="2280" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
         <v>2.8</v>
       </c>
       <c r="F2">
-        <v>1210000</v>
+        <v>1100000</v>
       </c>
     </row>
   </sheetData>
@@ -473,7 +473,7 @@
       </c>
       <c r="F2">
         <f>'2025'!F2*(1-0.1*0.2)</f>
-        <v>1185800</v>
+        <v>1078000</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +527,7 @@
       </c>
       <c r="F2">
         <f>'2025'!F2*(1-0.1*0.4)</f>
-        <v>1161600</v>
+        <v>1056000</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +581,7 @@
       </c>
       <c r="F2">
         <f>'2025'!F2*(1-0.1*0.6)</f>
-        <v>1137400</v>
+        <v>1033999.9999999999</v>
       </c>
     </row>
   </sheetData>
@@ -635,7 +635,7 @@
       </c>
       <c r="F2">
         <f>'2025'!F2*(1-0.1*0.8)</f>
-        <v>1113200</v>
+        <v>1011999.9999999999</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +689,7 @@
       </c>
       <c r="F2">
         <f>'2025'!F2*(1-0.1*1)</f>
-        <v>1089000</v>
+        <v>990000</v>
       </c>
     </row>
   </sheetData>
